--- a/fft_analysis.xlsx
+++ b/fft_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ca794b3fe8c0dc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ca794b3fe8c0dc/Desktop/free_vibration_fft/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{9E0AA851-C25F-451D-8D07-45251CBA2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE529B48-5EC2-4F56-9B1B-90D94F518B04}"/>
@@ -7335,7 +7335,7 @@
   <dimension ref="A1:J557"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fft_analysis.xlsx
+++ b/fft_analysis.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{9E0AA851-C25F-451D-8D07-45251CBA2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE529B48-5EC2-4F56-9B1B-90D94F518B04}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="3345" windowWidth="23085" windowHeight="11385" xr2:uid="{33319F22-7171-464B-A8AE-37A4D03CD00C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33319F22-7171-464B-A8AE-37A4D03CD00C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7334,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E919FF-54CF-49DD-82C0-14398E164367}">
   <dimension ref="A1:J557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H257" sqref="E257:H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fft_analysis.xlsx
+++ b/fft_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ca794b3fe8c0dc/Desktop/free_vibration_fft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ca794b3fe8c0dc/Desktop/Files/BASc EngSci UTSG/Y1 2020-21/Extracurriculars/MathWorks Summer Hackathon/free_vibration_fft/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{9E0AA851-C25F-451D-8D07-45251CBA2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE529B48-5EC2-4F56-9B1B-90D94F518B04}"/>
@@ -7334,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E919FF-54CF-49DD-82C0-14398E164367}">
   <dimension ref="A1:J557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H257" sqref="E257:H257"/>
     </sheetView>
   </sheetViews>
